--- a/YGGDRASIL/NOMAL/カニソムリエ.xlsx
+++ b/YGGDRASIL/NOMAL/カニソムリエ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2198f40306f4874/KANIDORA/5.Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\バックアップ\ROG\KaniTRPGROG\YGGDRASIL\NOMAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="13_ncr:1_{3E8C7DAD-C407-453A-9167-E2B30AE2EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E734C0F6-6CF9-4B3D-A715-EFD89C237F46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80483E37-45D0-4A07-9340-B4C9E31A61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5362FB8-6611-4166-A3E4-04ADF3D10CE3}"/>
+    <workbookView xWindow="-24" yWindow="0" windowWidth="11508" windowHeight="12672" activeTab="1" xr2:uid="{C5362FB8-6611-4166-A3E4-04ADF3D10CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoC" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="322">
   <si>
     <t>CoCセッション</t>
     <phoneticPr fontId="1"/>
@@ -415,9 +415,6 @@
     <t>名探偵黒猫と大怪盗キャッツ</t>
   </si>
   <si>
-    <t>THE CANCER</t>
-  </si>
-  <si>
     <t>マッドなGOD</t>
   </si>
   <si>
@@ -710,10 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>All I Want For Christmas Is …（第二版）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -985,10 +978,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>exercises</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>山猫は静かに語る</t>
     <rPh sb="0" eb="2">
       <t>ヤマネコ</t>
@@ -1023,20 +1012,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lovesister</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>youarefather</t>
   </si>
   <si>
     <t>typhoon</t>
   </si>
   <si>
-    <t>eggorchickin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>prison</t>
   </si>
   <si>
@@ -1049,27 +1030,7 @@
     <t>oneday</t>
   </si>
   <si>
-    <t>samurai</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ringomohikan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>動物さんにリンゴを届けてください。届けたらマジで終わりです。(2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ringodoubutu3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ringodoubutu2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1098,10 +1059,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sinitagari</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>muteki</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1126,10 +1083,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>merikuri</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>akeome</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1206,14 +1159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット探しの依頼です。 - Another -</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あの顔を撃つのはあなたＲ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォーエバー ボーグバトラー！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1227,14 +1172,6 @@
   </si>
   <si>
     <t>kaizyoukeibi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>facemcshootyR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kabutoborg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1265,10 +1202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>terrorminecart</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>恐怖！暴走人食いトロッコ！！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1277,19 +1210,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mutria</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒカリ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タローマン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ringodoubutu4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1360,136 +1285,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>ygg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ｒ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anger1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ygg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ｒ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anger2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ygg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ｒ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anger4</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ygg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ｒ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anger6</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メロス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>鋼鉄戦隊ユグレンジャー 第5樹</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ygg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ｒ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anger5</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1599,6 +1399,191 @@
   </si>
   <si>
     <t>名和公平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>happynewvishnal</t>
+  </si>
+  <si>
+    <t>賀正2024 - 愛と憎しみの果て -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミはちゃんと分別しましょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深淵からの漂流者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋トレの時間だ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット探しの依頼でした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おいしいマフィンを召し上がれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血涙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最強の壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛丼が値上がりするようです。Ⅱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユグドラシルではよくあることです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海も枯れるまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬえが哭く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃え焦がる牙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ・オブ・デスサウナ　～死のサウナを脱出せよ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッチ・マン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yggranger6</t>
+  </si>
+  <si>
+    <t>THE CANCEr</t>
+  </si>
+  <si>
+    <t>yggranger1</t>
+  </si>
+  <si>
+    <t>yggranger2</t>
+  </si>
+  <si>
+    <t>exercises</t>
+  </si>
+  <si>
+    <t>eggorchickin</t>
+  </si>
+  <si>
+    <t>yggranger4</t>
+  </si>
+  <si>
+    <t>lovesister</t>
+  </si>
+  <si>
+    <t>yggranger5</t>
+  </si>
+  <si>
+    <t>samurai</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>kabutoborg</t>
+  </si>
+  <si>
+    <t>ringomohikan</t>
+  </si>
+  <si>
+    <t>ringodoubutu2</t>
+  </si>
+  <si>
+    <t>sinitagari</t>
+  </si>
+  <si>
+    <t>ringodoubutu3</t>
+  </si>
+  <si>
+    <t>ringodoubutu4</t>
+  </si>
+  <si>
+    <t>All I Want For Christmas Is …（第二版）</t>
+  </si>
+  <si>
+    <t>merikuri</t>
+  </si>
+  <si>
+    <t>ペット探しの依頼です。 - Another -</t>
+  </si>
+  <si>
+    <t>あの顔を撃つのはあなたr</t>
+  </si>
+  <si>
+    <t>facemcshootyr</t>
+  </si>
+  <si>
+    <t>mutria</t>
+  </si>
+  <si>
+    <t>terrorminecart</t>
+  </si>
+  <si>
+    <t>ゲームの時間r　～勝ち抜け！理不尽武闘大会！？～</t>
+  </si>
+  <si>
+    <t>gametimer</t>
+  </si>
+  <si>
+    <t>recyclingsuisyou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deliciousmuffins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tearsofblood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>challengethewall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyudon2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tyamesiincident</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nuegaGotoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>burningfangs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deathsauna</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glitchman</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1652,10 +1637,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1716,7 +1702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,6 +1730,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1766,8 +1755,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A521B2FD-E571-4CFF-B5E4-CAEE85EA570F}" name="テーブル1" displayName="テーブル1" ref="A2:K288" totalsRowShown="0">
-  <autoFilter ref="A2:K288" xr:uid="{A521B2FD-E571-4CFF-B5E4-CAEE85EA570F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A521B2FD-E571-4CFF-B5E4-CAEE85EA570F}" name="テーブル1" displayName="テーブル1" ref="A2:K287" totalsRowShown="0">
+  <autoFilter ref="A2:K287" xr:uid="{A521B2FD-E571-4CFF-B5E4-CAEE85EA570F}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="？"/>
@@ -1775,7 +1764,7 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K94">
-    <sortCondition ref="C2:C288"/>
+    <sortCondition ref="C2:C287"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{37C9E19E-36CB-4D67-B808-674B606F3AEA}" name="シナリオタイトル"/>
@@ -2091,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2A4940-1ADF-443B-9ACE-0A44DF5A6DFB}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2214,7 +2203,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -2225,10 +2214,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
       </c>
       <c r="C14">
         <v>20190318</v>
@@ -2236,10 +2225,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>20190409</v>
@@ -2247,10 +2236,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>20190712</v>
@@ -2258,7 +2247,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -2269,7 +2258,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -2280,7 +2269,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -2291,7 +2280,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -2302,7 +2291,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -2313,7 +2302,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -2324,7 +2313,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -2335,7 +2324,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -2346,7 +2335,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -2357,7 +2346,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
@@ -2368,7 +2357,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2379,7 +2368,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2387,13 +2376,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C29">
         <v>20230426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2404,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C554B2-A0CF-4012-8188-E274791ABB10}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2432,13 +2426,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2450,7 +2444,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -2459,18 +2453,18 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3">
         <v>20170522</v>
@@ -2483,13 +2477,13 @@
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
@@ -2497,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4">
         <v>20170605</v>
@@ -2509,13 +2503,13 @@
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -2532,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
@@ -2552,7 +2546,7 @@
         <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
@@ -2570,10 +2564,10 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -2593,7 +2587,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -2614,7 +2608,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
@@ -2625,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C10">
         <v>20171201</v>
@@ -2637,13 +2631,13 @@
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -2660,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2677,10 +2671,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2700,7 +2694,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
@@ -2711,7 +2705,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14">
         <v>20180421</v>
@@ -2743,7 +2737,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
@@ -2754,7 +2748,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16">
         <v>20180503</v>
@@ -2766,13 +2760,13 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -2790,7 +2784,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -2798,7 +2792,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C18">
         <v>20180619</v>
@@ -2810,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -2830,7 +2824,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -2850,7 +2844,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
         <v>32</v>
@@ -2868,10 +2862,10 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
@@ -2879,7 +2873,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22">
@@ -2892,7 +2886,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
@@ -2900,7 +2894,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23">
@@ -2913,7 +2907,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" t="s">
         <v>32</v>
@@ -2921,10 +2915,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>172</v>
+        <v>68</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C24">
         <v>20181112</v>
@@ -2936,7 +2930,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
@@ -2944,8 +2938,9 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>71</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B25" s="9"/>
       <c r="C25">
         <v>20190304</v>
       </c>
@@ -2956,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2964,10 +2959,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>267</v>
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="C26">
         <v>20190505</v>
@@ -2976,10 +2971,10 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2987,13 +2982,13 @@
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>20190603</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
@@ -3012,8 +3007,8 @@
       <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
-        <v>183</v>
+      <c r="B28" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C28">
         <v>20190604</v>
@@ -3025,19 +3020,20 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>275</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29">
         <v>20190606</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -3056,8 +3052,9 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30">
         <v>20190627</v>
       </c>
@@ -3068,7 +3065,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -3076,10 +3073,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>268</v>
+        <v>79</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C31">
         <v>20190729</v>
@@ -3088,10 +3085,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -3099,8 +3096,9 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>81</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32">
         <v>20190826</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -3119,7 +3117,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33">
         <v>20190907</v>
@@ -3131,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -3142,7 +3140,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C34">
         <v>20200118</v>
@@ -3154,7 +3152,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -3174,7 +3172,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" t="s">
         <v>32</v>
@@ -3182,7 +3180,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <v>20200304</v>
@@ -3194,7 +3192,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" t="s">
         <v>32</v>
@@ -3202,19 +3200,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>20200408</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" t="s">
         <v>32</v>
@@ -3234,7 +3232,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
         <v>32</v>
@@ -3245,7 +3243,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>20200420</v>
@@ -3257,24 +3255,24 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" t="s">
         <v>32</v>
       </c>
       <c r="K39" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>20200422</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -3289,12 +3287,12 @@
         <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>20200424</v>
@@ -3306,21 +3304,21 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="C42">
         <v>20200428</v>
@@ -3329,19 +3327,19 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" t="s">
         <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
@@ -3349,7 +3347,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C43">
         <v>20200504</v>
@@ -3361,21 +3359,21 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" t="s">
         <v>32</v>
       </c>
       <c r="K43" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C44">
         <v>20200508</v>
@@ -3384,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
       </c>
       <c r="K44" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -3404,7 +3402,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="C45">
         <v>20200516</v>
@@ -3416,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3425,7 +3423,7 @@
         <v>32</v>
       </c>
       <c r="K45" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
@@ -3433,7 +3431,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C46">
         <v>20200519</v>
@@ -3445,21 +3443,21 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" t="s">
         <v>32</v>
       </c>
       <c r="K46" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>269</v>
+        <v>88</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="C47">
         <v>20200527</v>
@@ -3468,16 +3466,16 @@
         <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I47" t="s">
         <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -3485,7 +3483,7 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C48">
         <v>20200701</v>
@@ -3497,7 +3495,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I48" t="s">
         <v>32</v>
@@ -3506,7 +3504,7 @@
         <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -3514,7 +3512,7 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C49">
         <v>20200711</v>
@@ -3526,7 +3524,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
@@ -3535,7 +3533,7 @@
         <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -3543,7 +3541,7 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="C50">
         <v>20200711</v>
@@ -3555,7 +3553,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I50" t="s">
         <v>32</v>
@@ -3564,7 +3562,7 @@
         <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -3581,7 +3579,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I51" t="s">
         <v>32</v>
@@ -3590,7 +3588,7 @@
         <v>32</v>
       </c>
       <c r="K51" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
@@ -3607,18 +3605,18 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I52" t="s">
         <v>32</v>
       </c>
       <c r="K52" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <v>20201122</v>
@@ -3627,16 +3625,16 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" t="s">
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -3644,7 +3642,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C54">
         <v>20201225</v>
@@ -3656,24 +3654,24 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J54" t="s">
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>272</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="C55">
         <v>20201230</v>
@@ -3682,27 +3680,27 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K55" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56">
         <v>20210128</v>
@@ -3714,18 +3712,18 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I56" t="s">
         <v>32</v>
       </c>
       <c r="K56" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57">
         <v>20210129</v>
@@ -3737,13 +3735,13 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I57" t="s">
         <v>32</v>
       </c>
       <c r="K57" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -3751,7 +3749,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C58">
         <v>20210630</v>
@@ -3763,13 +3761,13 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I58" t="s">
         <v>32</v>
       </c>
       <c r="K58" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -3777,7 +3775,7 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="C59">
         <v>20210824</v>
@@ -3789,13 +3787,13 @@
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I59" t="s">
         <v>32</v>
       </c>
       <c r="K59" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
@@ -3803,7 +3801,7 @@
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="C60">
         <v>20210928</v>
@@ -3815,13 +3813,13 @@
         <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I60" t="s">
         <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
@@ -3829,7 +3827,7 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>20211008</v>
@@ -3841,25 +3839,25 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K61" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62">
         <v>20220128</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>1</v>
@@ -3882,10 +3880,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C63">
         <v>20211206</v>
@@ -3897,13 +3895,13 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
       </c>
       <c r="K63" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
@@ -3911,7 +3909,7 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="C64">
         <v>20220220</v>
@@ -3923,27 +3921,27 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K64" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="C65">
         <v>20220409</v>
@@ -3955,77 +3953,77 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J65" t="s">
         <v>32</v>
       </c>
       <c r="K65" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C66">
         <v>20220413</v>
       </c>
       <c r="E66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" t="s">
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J66" t="s">
         <v>32</v>
       </c>
       <c r="K66" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C67">
         <v>20220427</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J67" t="s">
         <v>32</v>
@@ -4036,10 +4034,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C68">
         <v>20220504</v>
@@ -4051,27 +4049,27 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J68" t="s">
         <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="C69">
         <v>20220522</v>
@@ -4083,27 +4081,27 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K69" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C70">
         <v>20220529</v>
@@ -4115,24 +4113,24 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J70" t="s">
         <v>32</v>
       </c>
       <c r="K70" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71">
         <v>20220601</v>
@@ -4144,27 +4142,27 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J71" t="s">
         <v>32</v>
       </c>
       <c r="K71" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="C72">
         <v>20220611</v>
@@ -4176,30 +4174,30 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J72" t="s">
         <v>32</v>
       </c>
       <c r="K72" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73">
         <v>20220616</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
@@ -4222,10 +4220,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C74">
         <v>20220612</v>
@@ -4237,27 +4235,27 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J74" t="s">
         <v>32</v>
       </c>
       <c r="K74" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="C75">
         <v>20220622</v>
@@ -4269,30 +4267,30 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J75" t="s">
         <v>32</v>
       </c>
       <c r="K75" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C76">
         <v>20220722</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E76" t="s">
         <v>63</v>
@@ -4315,13 +4313,13 @@
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C77">
         <v>20220722</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -4344,13 +4342,13 @@
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78">
         <v>20220822</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
         <v>1</v>
@@ -4373,13 +4371,13 @@
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C79">
         <v>20220920</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
@@ -4402,16 +4400,16 @@
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80">
         <v>20220926</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -4434,10 +4432,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C81">
         <v>20220712</v>
@@ -4449,27 +4447,27 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K81" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="C82">
         <v>20221219</v>
@@ -4481,33 +4479,33 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J82" t="s">
         <v>32</v>
       </c>
       <c r="K82" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C83">
         <v>20230102</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
         <v>1</v>
@@ -4530,19 +4528,19 @@
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C84">
         <v>20230108</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
         <v>38</v>
@@ -4562,42 +4560,42 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C85">
         <v>20230114</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J85" t="s">
         <v>32</v>
       </c>
       <c r="K85" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C86">
         <v>20230129</v>
@@ -4609,33 +4607,33 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K86" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C87">
         <v>20230216</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -4644,7 +4642,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H87" t="s">
         <v>32</v>
@@ -4658,10 +4656,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="C88">
         <v>20230203</v>
@@ -4673,27 +4671,27 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K88" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C89">
         <v>20230223</v>
@@ -4705,7 +4703,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -4717,15 +4715,15 @@
         <v>32</v>
       </c>
       <c r="K89" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="C90">
         <v>20230328</v>
@@ -4737,27 +4735,27 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K90" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="C91">
         <v>20230409</v>
@@ -4769,27 +4767,27 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K91" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>261</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="C92">
         <v>20230511</v>
@@ -4798,30 +4796,30 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K92" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="C93">
         <v>20230513</v>
@@ -4833,27 +4831,27 @@
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K93" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C94">
         <v>20230513</v>
@@ -4865,7 +4863,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
@@ -4877,32 +4875,141 @@
         <v>32</v>
       </c>
       <c r="K94" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100">
+        <v>202401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+      <c r="B107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+      <c r="B108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>280</v>
+      <c r="B109" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4939,40 +5046,40 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M1" s="8" t="str">
         <f>"|開催|ログ|画像|ＰＬ|ＰＣ|"&amp;
@@ -5015,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xlfn.SWITCH(C2,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5026,10 +5133,10 @@
         <v>I</v>
       </c>
       <c r="F2" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H12" si="0">$A$4&amp;E2</f>
@@ -5065,13 +5172,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xlfn.SWITCH(C3,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5082,10 +5189,10 @@
         <v>T</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -5121,13 +5228,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">_xlfn.SWITCH(C4,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5138,10 +5245,10 @@
         <v>W</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -5177,13 +5284,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" ref="D5">_xlfn.SWITCH(C5,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5194,10 +5301,10 @@
         <v>C</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -5233,13 +5340,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.SWITCH(C6,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5250,10 +5357,10 @@
         <v>H</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -5289,13 +5396,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.SWITCH(C7,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5306,10 +5413,10 @@
         <v>A</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -5352,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" ref="D8">_xlfn.SWITCH(C8,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5363,10 +5470,10 @@
         <v>I</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -5402,13 +5509,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" ref="D9">_xlfn.SWITCH(C9,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5419,10 +5526,10 @@
         <v>S</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -5458,13 +5565,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10">_xlfn.SWITCH(C10,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5475,10 +5582,10 @@
         <v>W</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -5517,7 +5624,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.SWITCH(C11,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5528,10 +5635,10 @@
         <v>M</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -5570,7 +5677,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">_xlfn.SWITCH(C12,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5581,10 +5688,10 @@
         <v>C</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -5654,40 +5761,40 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M1" s="8" t="str">
         <f>"|開催|ログ|画像|ＰＬ|ＰＣ|"&amp;
@@ -5732,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xlfn.SWITCH(C2,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5743,10 +5850,10 @@
         <v>T</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" t="str">
         <f>E2&amp;E3&amp;$A$4&amp;".html"</f>
@@ -5783,13 +5890,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xlfn.SWITCH(C3,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5800,10 +5907,10 @@
         <v>H</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" t="str">
         <f>E4&amp;E5&amp;$A$4&amp;".html"</f>
@@ -5840,13 +5947,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">_xlfn.SWITCH(C4,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5857,10 +5964,10 @@
         <v>W</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" t="str">
         <f>E6&amp;E7&amp;$A$4&amp;".html"</f>
@@ -5897,13 +6004,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" ref="D5">_xlfn.SWITCH(C5,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5914,10 +6021,10 @@
         <v>K</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" t="str">
         <f>E8&amp;E9&amp;$A$4&amp;".html"</f>
@@ -5954,13 +6061,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.SWITCH(C6,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5971,10 +6078,10 @@
         <v>A</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H6" t="str">
         <f>E10&amp;E11&amp;$A$4&amp;".html"</f>
@@ -6011,13 +6118,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.SWITCH(C7,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6028,7 +6135,7 @@
         <v>C</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -6051,7 +6158,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" ref="D8">_xlfn.SWITCH(C8,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6062,7 +6169,7 @@
         <v>V</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -6078,13 +6185,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" ref="D9">_xlfn.SWITCH(C9,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6095,7 +6202,7 @@
         <v>R</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6111,13 +6218,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10">_xlfn.SWITCH(C10,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6128,7 +6235,7 @@
         <v>I</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -6147,7 +6254,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.SWITCH(C11,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6158,7 +6265,7 @@
         <v>M</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -6177,7 +6284,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">_xlfn.SWITCH(C12,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6188,7 +6295,7 @@
         <v>W</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -6240,40 +6347,40 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M1" s="8" t="str">
         <f>"|開催|ログ|画像|ＰＬ|ＰＣ|"&amp;
@@ -6320,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xlfn.SWITCH(C2,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6331,10 +6438,10 @@
         <v>T</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" t="str">
         <f>$A$4&amp;E2&amp;E3&amp;E4&amp;".html"</f>
@@ -6372,13 +6479,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xlfn.SWITCH(C3,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6389,10 +6496,10 @@
         <v>R</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" t="str">
         <f>$A$4&amp;E5&amp;E6&amp;E7&amp;".html"</f>
@@ -6430,13 +6537,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">_xlfn.SWITCH(C4,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6447,10 +6554,10 @@
         <v>K</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" t="str">
         <f>$A$4&amp;E8&amp;E9&amp;E10&amp;".html"</f>
@@ -6488,13 +6595,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" ref="D5">_xlfn.SWITCH(C5,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6505,10 +6612,10 @@
         <v>H</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" t="str">
         <f>$A$4&amp;E11&amp;E12&amp;E13&amp;".html"</f>
@@ -6546,13 +6653,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.SWITCH(C6,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6563,7 +6670,7 @@
         <v>V</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -6579,13 +6686,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.SWITCH(C7,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6596,7 +6703,7 @@
         <v>C</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -6619,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" ref="D8">_xlfn.SWITCH(C8,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6630,7 +6737,7 @@
         <v>A</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -6646,13 +6753,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" ref="D9">_xlfn.SWITCH(C9,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6663,7 +6770,7 @@
         <v>I</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6679,13 +6786,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10">_xlfn.SWITCH(C10,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6696,7 +6803,7 @@
         <v>S</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -6715,7 +6822,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.SWITCH(C11,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6726,7 +6833,7 @@
         <v>V</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -6745,7 +6852,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">_xlfn.SWITCH(C12,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6756,7 +6863,7 @@
         <v>W</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>

--- a/YGGDRASIL/NOMAL/カニソムリエ.xlsx
+++ b/YGGDRASIL/NOMAL/カニソムリエ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\バックアップ\ROG\KaniTRPGROG\YGGDRASIL\NOMAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80483E37-45D0-4A07-9340-B4C9E31A61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916C5B88-4601-4DBB-B033-A2158D68F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="0" windowWidth="11508" windowHeight="12672" activeTab="1" xr2:uid="{C5362FB8-6611-4166-A3E4-04ADF3D10CE3}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5362FB8-6611-4166-A3E4-04ADF3D10CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoC" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="327">
   <si>
     <t>CoCセッション</t>
     <phoneticPr fontId="1"/>
@@ -1198,10 +1198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>恐怖！暴走人食いトロッコ！！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1402,188 +1398,222 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>賀正2024 - 愛と憎しみの果て -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミはちゃんと分別しましょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深淵からの漂流者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋トレの時間だ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット探しの依頼でした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おいしいマフィンを召し上がれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血涙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最強の壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛丼が値上がりするようです。Ⅱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユグドラシルではよくあることです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海も枯れるまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬえが哭く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃え焦がる牙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ・オブ・デスサウナ　～死のサウナを脱出せよ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッチ・マン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yggranger6</t>
+  </si>
+  <si>
+    <t>THE CANCEr</t>
+  </si>
+  <si>
+    <t>yggranger1</t>
+  </si>
+  <si>
+    <t>yggranger2</t>
+  </si>
+  <si>
+    <t>exercises</t>
+  </si>
+  <si>
+    <t>eggorchickin</t>
+  </si>
+  <si>
+    <t>yggranger4</t>
+  </si>
+  <si>
+    <t>lovesister</t>
+  </si>
+  <si>
+    <t>yggranger5</t>
+  </si>
+  <si>
+    <t>samurai</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>kabutoborg</t>
+  </si>
+  <si>
+    <t>ringomohikan</t>
+  </si>
+  <si>
+    <t>ringodoubutu2</t>
+  </si>
+  <si>
+    <t>sinitagari</t>
+  </si>
+  <si>
+    <t>ringodoubutu3</t>
+  </si>
+  <si>
+    <t>ringodoubutu4</t>
+  </si>
+  <si>
+    <t>All I Want For Christmas Is …（第二版）</t>
+  </si>
+  <si>
+    <t>merikuri</t>
+  </si>
+  <si>
+    <t>ペット探しの依頼です。 - Another -</t>
+  </si>
+  <si>
+    <t>あの顔を撃つのはあなたr</t>
+  </si>
+  <si>
+    <t>facemcshootyr</t>
+  </si>
+  <si>
+    <t>mutria</t>
+  </si>
+  <si>
+    <t>terrorminecart</t>
+  </si>
+  <si>
+    <t>ゲームの時間r　～勝ち抜け！理不尽武闘大会！？～</t>
+  </si>
+  <si>
+    <t>gametimer</t>
+  </si>
+  <si>
+    <t>recyclingsuisyou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tearsofblood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>challengethewall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyudon2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tyamesiincident</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>burningfangs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deathsauna</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glitchman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>happynewvishnal</t>
-  </si>
-  <si>
-    <t>賀正2024 - 愛と憎しみの果て -</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴミはちゃんと分別しましょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>深淵からの漂流者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>筋トレの時間だ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペット探しの依頼でした。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おいしいマフィンを召し上がれ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>血涙</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最強の壁</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>牛丼が値上がりするようです。Ⅱ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユグドラシルではよくあることです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海も枯れるまで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぬえが哭く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃え焦がる牙</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エスケープ・オブ・デスサウナ　～死のサウナを脱出せよ～</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グリッチ・マン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yggranger6</t>
-  </si>
-  <si>
-    <t>THE CANCEr</t>
-  </si>
-  <si>
-    <t>yggranger1</t>
-  </si>
-  <si>
-    <t>yggranger2</t>
-  </si>
-  <si>
-    <t>exercises</t>
-  </si>
-  <si>
-    <t>eggorchickin</t>
-  </si>
-  <si>
-    <t>yggranger4</t>
-  </si>
-  <si>
-    <t>lovesister</t>
-  </si>
-  <si>
-    <t>yggranger5</t>
-  </si>
-  <si>
-    <t>samurai</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>kabutoborg</t>
-  </si>
-  <si>
-    <t>ringomohikan</t>
-  </si>
-  <si>
-    <t>ringodoubutu2</t>
-  </si>
-  <si>
-    <t>sinitagari</t>
-  </si>
-  <si>
-    <t>ringodoubutu3</t>
-  </si>
-  <si>
-    <t>ringodoubutu4</t>
-  </si>
-  <si>
-    <t>All I Want For Christmas Is …（第二版）</t>
-  </si>
-  <si>
-    <t>merikuri</t>
-  </si>
-  <si>
-    <t>ペット探しの依頼です。 - Another -</t>
-  </si>
-  <si>
-    <t>あの顔を撃つのはあなたr</t>
-  </si>
-  <si>
-    <t>facemcshootyr</t>
-  </si>
-  <si>
-    <t>mutria</t>
-  </si>
-  <si>
-    <t>terrorminecart</t>
-  </si>
-  <si>
-    <t>ゲームの時間r　～勝ち抜け！理不尽武闘大会！？～</t>
-  </si>
-  <si>
-    <t>gametimer</t>
-  </si>
-  <si>
-    <t>recyclingsuisyou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pet3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deliciousmuffins</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tearsofblood</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>challengethewall</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gyudon2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tyamesiincident</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nuegaGotoku</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>burningfangs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deathsauna</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>glitchman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mohimuffin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忌み子</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリウミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バツマル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホロウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうか忘れないで</t>
+    <rPh sb="3" eb="4">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wasurenaide</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1727,11 +1757,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,7 +1793,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K94">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K115">
     <sortCondition ref="C2:C287"/>
   </sortState>
   <tableColumns count="11">
@@ -2376,7 +2406,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -2387,7 +2417,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2398,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C554B2-A0CF-4012-8188-E274791ABB10}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2453,51 +2483,39 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20170522</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3">
+        <v>202401</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4">
-        <v>20170605</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20170522</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -2508,19 +2526,19 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
       </c>
       <c r="C5">
-        <v>20170608</v>
+        <v>20170605</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -2531,16 +2549,19 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
+      <c r="K5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>20170712</v>
+        <v>20170608</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -2553,18 +2574,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
       <c r="C7">
-        <v>20170910</v>
+        <v>20170712</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>115</v>
@@ -2574,35 +2594,35 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>20170910</v>
       </c>
       <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>20170910</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9">
-        <v>20170911</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -2615,14 +2635,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>181</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10">
-        <v>20171201</v>
+        <v>20170911</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2636,19 +2654,19 @@
       <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
       </c>
       <c r="C11">
-        <v>20180325</v>
+        <v>20171201</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -2659,19 +2677,22 @@
       <c r="I11" t="s">
         <v>32</v>
       </c>
+      <c r="K11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>20180328</v>
+        <v>20180325</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>115</v>
@@ -2682,16 +2703,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>20180420</v>
+        <v>20180328</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
         <v>115</v>
@@ -2702,22 +2723,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>20180421</v>
+        <v>20180420</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
@@ -2725,19 +2743,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
       </c>
       <c r="C15">
-        <v>20180422</v>
+        <v>20180421</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
@@ -2745,16 +2766,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>20180503</v>
+        <v>20180422</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
@@ -2765,20 +2783,19 @@
       <c r="I16" t="s">
         <v>32</v>
       </c>
-      <c r="K16" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2"/>
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
       <c r="C17">
-        <v>20180515</v>
+        <v>20180503</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
@@ -2789,16 +2806,20 @@
       <c r="I17" t="s">
         <v>32</v>
       </c>
+      <c r="K17" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>224</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18">
-        <v>20180619</v>
+        <v>20180515</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -2812,13 +2833,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="C19">
-        <v>20180703</v>
+        <v>20180619</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -2832,13 +2853,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>20180826</v>
+        <v>20180703</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>38</v>
@@ -2851,18 +2872,17 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="1"/>
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
       <c r="C21">
-        <v>20180912</v>
+        <v>20180826</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>115</v>
@@ -2873,17 +2893,17 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22">
-        <v>20180918</v>
+        <v>20180912</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
         <v>115</v>
@@ -2894,14 +2914,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23">
-        <v>20180928</v>
+        <v>20180918</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -2914,17 +2934,15 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>170</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24">
-        <v>20181112</v>
+        <v>20180928</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -2938,40 +2956,40 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>20181112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25">
+      <c r="B26" s="8"/>
+      <c r="C26">
         <v>20190304</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26">
-        <v>20190505</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>115</v>
@@ -3004,112 +3022,114 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>180</v>
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="C28">
-        <v>20190604</v>
+        <v>20190505</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
         <v>115</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
-      </c>
-      <c r="K28" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="C29">
-        <v>20190606</v>
+        <v>20190604</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>115</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30">
+        <v>20190606</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30">
+      <c r="B31" s="8"/>
+      <c r="C31">
         <v>20190627</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31">
+      <c r="B32" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32">
         <v>20190729</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>75</v>
       </c>
-      <c r="G31" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32">
-        <v>20190826</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>39</v>
-      </c>
       <c r="G32" t="s">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -3117,19 +3137,20 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>81</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B33" s="8"/>
       <c r="C33">
-        <v>20190907</v>
+        <v>20190826</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -3137,22 +3158,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="C34">
-        <v>20200118</v>
+        <v>20190907</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -3160,16 +3178,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>172</v>
       </c>
       <c r="C35">
-        <v>20200228</v>
+        <v>20200118</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
         <v>115</v>
@@ -3180,13 +3201,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>20200304</v>
+        <v>20200228</v>
       </c>
       <c r="E36" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
@@ -3200,13 +3221,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37">
-        <v>20200408</v>
+        <v>20200304</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
@@ -3220,13 +3241,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C38">
-        <v>20200419</v>
+        <v>20200408</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
         <v>39</v>
@@ -3240,207 +3261,195 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>20200420</v>
+        <v>20200419</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>115</v>
       </c>
       <c r="I39" t="s">
         <v>32</v>
-      </c>
-      <c r="K39" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
       </c>
       <c r="C40">
-        <v>20200422</v>
-      </c>
-      <c r="D40" t="s">
-        <v>227</v>
+        <v>20200420</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
         <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41">
-        <v>20200424</v>
+        <v>20200422</v>
       </c>
       <c r="E41" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c r="C42">
-        <v>20200428</v>
+        <v>20200424</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>115</v>
       </c>
-      <c r="H42" t="s">
-        <v>115</v>
-      </c>
       <c r="I42" t="s">
         <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="C43">
-        <v>20200504</v>
+        <v>20200428</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="G43" t="s">
         <v>115</v>
       </c>
+      <c r="H43" t="s">
+        <v>115</v>
+      </c>
       <c r="I43" t="s">
         <v>32</v>
       </c>
       <c r="K43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C44">
-        <v>20200508</v>
+        <v>20200504</v>
       </c>
       <c r="E44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>115</v>
       </c>
-      <c r="H44" t="s">
-        <v>115</v>
-      </c>
       <c r="I44" t="s">
         <v>32</v>
       </c>
       <c r="K44" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="C45">
-        <v>20200516</v>
+        <v>20200508</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
         <v>115</v>
       </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
       <c r="I45" t="s">
         <v>32</v>
       </c>
-      <c r="J45" t="s">
-        <v>32</v>
-      </c>
       <c r="K45" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="C46">
-        <v>20200519</v>
+        <v>20200516</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>115</v>
@@ -3448,25 +3457,28 @@
       <c r="I46" t="s">
         <v>32</v>
       </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
       <c r="K46" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>291</v>
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>182</v>
       </c>
       <c r="C47">
-        <v>20200527</v>
+        <v>20200519</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>115</v>
@@ -3475,24 +3487,24 @@
         <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>183</v>
+        <v>88</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="C48">
-        <v>20200701</v>
+        <v>20200527</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
         <v>115</v>
@@ -3500,22 +3512,19 @@
       <c r="I48" t="s">
         <v>32</v>
       </c>
-      <c r="J48" t="s">
-        <v>32</v>
-      </c>
       <c r="K48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49">
-        <v>20200711</v>
+        <v>20200701</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -3533,15 +3542,15 @@
         <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="C50">
         <v>20200711</v>
@@ -3562,15 +3571,18 @@
         <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>290</v>
       </c>
       <c r="C51">
-        <v>20200828</v>
+        <v>20200711</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
@@ -3588,15 +3600,15 @@
         <v>32</v>
       </c>
       <c r="K51" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>20201112</v>
+        <v>20200828</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -3610,22 +3622,25 @@
       <c r="I52" t="s">
         <v>32</v>
       </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
       <c r="K52" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C53">
-        <v>20201122</v>
+        <v>20201112</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>115</v>
@@ -3634,102 +3649,102 @@
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="C54">
-        <v>20201225</v>
+        <v>20201122</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
         <v>115</v>
       </c>
       <c r="I54" t="s">
-        <v>115</v>
-      </c>
-      <c r="J54" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K54" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>293</v>
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>185</v>
       </c>
       <c r="C55">
-        <v>20201230</v>
+        <v>20201225</v>
       </c>
       <c r="E55" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
         <v>115</v>
       </c>
-      <c r="H55" t="s">
-        <v>115</v>
-      </c>
       <c r="I55" t="s">
         <v>115</v>
       </c>
       <c r="J55" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>248</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="C56">
-        <v>20210128</v>
+        <v>20201230</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
         <v>115</v>
       </c>
+      <c r="H56" t="s">
+        <v>115</v>
+      </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="J56" t="s">
+        <v>115</v>
       </c>
       <c r="K56" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57">
-        <v>20210129</v>
+        <v>20210128</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
@@ -3741,21 +3756,18 @@
         <v>32</v>
       </c>
       <c r="K57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="C58">
-        <v>20210630</v>
+        <v>20210129</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
@@ -3767,21 +3779,21 @@
         <v>32</v>
       </c>
       <c r="K58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="C59">
-        <v>20210824</v>
+        <v>20210630</v>
       </c>
       <c r="E59" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
@@ -3793,21 +3805,21 @@
         <v>32</v>
       </c>
       <c r="K59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C60">
-        <v>20210928</v>
+        <v>20210824</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
@@ -3824,13 +3836,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="C61">
-        <v>20211008</v>
+        <v>20210928</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -3842,7 +3854,7 @@
         <v>115</v>
       </c>
       <c r="I61" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K61" t="s">
         <v>234</v>
@@ -3880,16 +3892,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="C63">
-        <v>20211206</v>
+        <v>20211008</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>38</v>
@@ -3898,24 +3910,24 @@
         <v>115</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K63" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C64">
-        <v>20220220</v>
+        <v>20211206</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>38</v>
@@ -3923,14 +3935,8 @@
       <c r="G64" t="s">
         <v>115</v>
       </c>
-      <c r="H64" t="s">
-        <v>115</v>
-      </c>
       <c r="I64" t="s">
-        <v>115</v>
-      </c>
-      <c r="J64" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K64" t="s">
         <v>235</v>
@@ -3938,16 +3944,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C65">
-        <v>20220409</v>
+        <v>20220220</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>38</v>
@@ -3962,24 +3968,24 @@
         <v>115</v>
       </c>
       <c r="J65" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="C66">
-        <v>20220413</v>
+        <v>20220409</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
         <v>38</v>
@@ -3997,21 +4003,21 @@
         <v>32</v>
       </c>
       <c r="K66" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C67">
-        <v>20220427</v>
+        <v>20220413</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s">
         <v>38</v>
@@ -4029,21 +4035,21 @@
         <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68">
-        <v>20220504</v>
+        <v>20220427</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F68" t="s">
         <v>38</v>
@@ -4061,21 +4067,21 @@
         <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>234</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="C69">
-        <v>20220522</v>
+        <v>20220504</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
         <v>38</v>
@@ -4090,7 +4096,7 @@
         <v>115</v>
       </c>
       <c r="J69" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K69" t="s">
         <v>233</v>
@@ -4098,16 +4104,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="C70">
-        <v>20220529</v>
+        <v>20220522</v>
       </c>
       <c r="E70" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
         <v>38</v>
@@ -4122,21 +4128,24 @@
         <v>115</v>
       </c>
       <c r="J70" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K70" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
       </c>
       <c r="C71">
-        <v>20220601</v>
+        <v>20220529</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>38</v>
@@ -4154,21 +4163,18 @@
         <v>32</v>
       </c>
       <c r="K71" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="C72">
-        <v>20220611</v>
+        <v>20220601</v>
       </c>
       <c r="E72" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>38</v>
@@ -4186,7 +4192,7 @@
         <v>32</v>
       </c>
       <c r="K72" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4220,16 +4226,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="C74">
-        <v>20220612</v>
+        <v>20220611</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>38</v>
@@ -4251,17 +4257,17 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75" s="7" t="s">
-        <v>196</v>
+      <c r="A75" t="s">
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="C75">
-        <v>20220622</v>
+        <v>20220612</v>
       </c>
       <c r="E75" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
         <v>38</v>
@@ -4279,7 +4285,7 @@
         <v>32</v>
       </c>
       <c r="K75" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4431,17 +4437,17 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>112</v>
+      <c r="A81" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C81">
-        <v>20220712</v>
+        <v>20220622</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -4456,24 +4462,24 @@
         <v>115</v>
       </c>
       <c r="J81" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K81" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="C82">
-        <v>20221219</v>
+        <v>20220712</v>
       </c>
       <c r="E82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -4488,10 +4494,10 @@
         <v>115</v>
       </c>
       <c r="J82" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K82" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4560,16 +4566,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="C85">
-        <v>20230114</v>
+        <v>20221219</v>
       </c>
       <c r="E85" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -4587,21 +4593,21 @@
         <v>32</v>
       </c>
       <c r="K85" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C86">
-        <v>20230129</v>
+        <v>20230114</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F86" t="s">
         <v>38</v>
@@ -4616,10 +4622,10 @@
         <v>115</v>
       </c>
       <c r="J86" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K86" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4656,16 +4662,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="C88">
-        <v>20230203</v>
+        <v>20230129</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>38</v>
@@ -4683,21 +4689,21 @@
         <v>115</v>
       </c>
       <c r="K88" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="C89">
-        <v>20230223</v>
+        <v>20230203</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>38</v>
@@ -4706,48 +4712,48 @@
         <v>115</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I89" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="J89" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K89" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B90" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="C90">
-        <v>20230328</v>
+        <v>20230223</v>
       </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>115</v>
       </c>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="J90" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K90" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
@@ -4755,16 +4761,16 @@
         <v>228</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C91">
-        <v>20230409</v>
+        <v>20230328</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>115</v>
@@ -4784,19 +4790,19 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>242</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>285</v>
+        <v>227</v>
+      </c>
+      <c r="B92" t="s">
+        <v>306</v>
       </c>
       <c r="C92">
-        <v>20230511</v>
+        <v>20230409</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>115</v>
@@ -4811,24 +4817,24 @@
         <v>115</v>
       </c>
       <c r="K92" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>309</v>
-      </c>
-      <c r="B93" t="s">
-        <v>310</v>
+        <v>241</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="C93">
-        <v>20230513</v>
+        <v>20230511</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G93" t="s">
         <v>115</v>
@@ -4843,21 +4849,21 @@
         <v>115</v>
       </c>
       <c r="K93" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="C94">
         <v>20230513</v>
       </c>
       <c r="E94" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
         <v>38</v>
@@ -4866,150 +4872,271 @@
         <v>115</v>
       </c>
       <c r="H94" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I94" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="J94" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K94" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>242</v>
+      </c>
+      <c r="B95" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95">
+        <v>20230513</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s">
+        <v>115</v>
+      </c>
+      <c r="H95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" t="s">
+        <v>32</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="s">
+        <v>314</v>
+      </c>
+      <c r="C96">
+        <v>20231214</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>275</v>
+      </c>
+      <c r="B97" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97">
+        <v>20231217</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98" t="s">
+        <v>320</v>
+      </c>
+      <c r="C98">
+        <v>20240310</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>280</v>
+      </c>
+      <c r="B99" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99">
+        <v>20240413</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100">
+        <v>20240418</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>115</v>
+      </c>
+      <c r="K100" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>325</v>
+      </c>
+      <c r="B101" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101">
+        <v>20240525</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="K101" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102">
+        <v>20240625</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="K102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>270</v>
       </c>
-      <c r="B100" t="s">
-        <v>269</v>
-      </c>
-      <c r="C100">
-        <v>202401</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>271</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>274</v>
-      </c>
-      <c r="B104" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>275</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>276</v>
-      </c>
-      <c r="B106" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>277</v>
-      </c>
-      <c r="B107" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>278</v>
-      </c>
-      <c r="B108" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>279</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>281</v>
-      </c>
-      <c r="B110" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>282</v>
-      </c>
-      <c r="B111" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>283</v>
-      </c>
-      <c r="B112" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>284</v>
-      </c>
-      <c r="B113" t="s">
-        <v>321</v>
+      <c r="E115" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5208,7 @@
       <c r="L1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="8" t="str">
+      <c r="M1" s="9" t="str">
         <f>"|開催|ログ|画像|ＰＬ|ＰＣ|"&amp;
 CHAR(10)&amp;L2&amp;
 CHAR(10)&amp;L3&amp;
@@ -5103,16 +5230,16 @@
 |第八回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleS/notitleS.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleS/スマ【タイトル未定】.jpg]]|スマブラの人|元加 枠|
 |第九回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleW/notitleW.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleW/ウル【タイトル未定】.jpg]]|ウルフ|キリコ・フリードマン料理長|</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2">
@@ -5133,7 +5260,7 @@
         <v>I</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
@@ -5158,17 +5285,17 @@
         <f t="shared" ref="L2:L12" si="2">"|"&amp;G2&amp;"|"&amp;I2&amp;"|"&amp;K2&amp;"|"&amp;C2&amp;"|"&amp;F2&amp;"|"</f>
         <v>|第一回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleI/notitleI.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleI/キリ【タイトル未定】.jpg]]|キリシロ|禍神 映|</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
@@ -5214,17 +5341,17 @@
         <f t="shared" si="2"/>
         <v>|第二回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleT/notitleT.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleT/T【タイトル未定】.jpg]]|超たくあん|とるとる|</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -5245,7 +5372,7 @@
         <v>W</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
         <v>148</v>
@@ -5270,17 +5397,17 @@
         <f t="shared" si="2"/>
         <v>|第三回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleW/notitleW.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleW/ウル【タイトル未定】.jpg]]|ウルフ|丙 四恩|</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
@@ -5301,7 +5428,7 @@
         <v>C</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" t="s">
         <v>149</v>
@@ -5326,21 +5453,21 @@
         <f t="shared" si="2"/>
         <v>|第四回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleC/notitleC.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleC/チヒ【タイトル未定】.jpg]]|チヒロ|MOMO|</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5357,7 +5484,7 @@
         <v>H</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
         <v>150</v>
@@ -5382,17 +5509,17 @@
         <f t="shared" si="2"/>
         <v>|第五回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleH/notitleH.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleH/はむ【タイトル未定】.jpg]]|はむぱん|名和公平|</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
@@ -5413,7 +5540,7 @@
         <v>A</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G7" t="s">
         <v>151</v>
@@ -5438,17 +5565,17 @@
         <f t="shared" si="2"/>
         <v>|第六回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleA/notitleA.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleA/づけ【タイトル未定】.jpg]]|あさづけ|ミツル|</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
@@ -5495,17 +5622,17 @@
         <f t="shared" si="2"/>
         <v>|第七回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleI/notitleI.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleI/キリ【タイトル未定】.jpg]]|キリシロ|アニヤ|</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
@@ -5551,17 +5678,17 @@
         <f t="shared" si="2"/>
         <v>|第八回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleS/notitleS.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleS/スマ【タイトル未定】.jpg]]|スマブラの人|元加 枠|</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -5607,17 +5734,17 @@
         <f t="shared" si="2"/>
         <v>|第九回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleW/notitleW.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleW/ウル【タイトル未定】.jpg]]|ウルフ|キリコ・フリードマン料理長|</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -5660,17 +5787,17 @@
         <f t="shared" si="2"/>
         <v>|第十回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleM/notitleM.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleM/マモ【タイトル未定】.jpg]]|マンモーニ|キリコ・フリードマン料理長|</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B12">
@@ -5713,17 +5840,17 @@
         <f t="shared" si="2"/>
         <v>|第十一回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleC/notitleC.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202303notitle/notitleC/チヒ【タイトル未定】.jpg]]|チヒロ|PC11|</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5796,7 +5923,7 @@
       <c r="L1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="8" t="str">
+      <c r="M1" s="9" t="str">
         <f>"|開催|ログ|画像|ＰＬ|ＰＣ|"&amp;
 CHAR(10)&amp;L2&amp;
 CHAR(10)&amp;L3&amp;
@@ -5820,16 +5947,16 @@
 |~|~|~|マンモーニ|PC10|
 </v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2">
@@ -5876,17 +6003,17 @@
         <v>|第一回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/THgametimeR.html/THgametimeR.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/THgametimeR.html/Tはむ【理不尽武闘大会】.jpg]]|超たくあん|とるとる|
 |~|~|~|はむぱん|小森朋典|</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
@@ -5907,7 +6034,7 @@
         <v>H</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
         <v>147</v>
@@ -5933,21 +6060,21 @@
         <v>|第二回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/WKgametimeR.html/WKgametimeR.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/WKgametimeR.html/ウルカゲ【理不尽武闘大会】.jpg]]|ウルフ|"征服者”エレナ|
 |~|~|~|カゲロウ|ラスター|</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5964,7 +6091,7 @@
         <v>W</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
         <v>148</v>
@@ -5990,17 +6117,17 @@
         <v>|第三回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/ACgametimeR.html/ACgametimeR.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/ACgametimeR.html/づけチヒ【理不尽武闘大会】.jpg]]|あさづけ|ヒカリ|
 |~|~|~|チヒロ|めぐみん|</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
@@ -6021,7 +6148,7 @@
         <v>K</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
         <v>149</v>
@@ -6047,21 +6174,21 @@
         <v>|第四回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/VRgametimeR.html/VRgametimeR.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/VRgametimeR.html/さぼラバ【理不尽武闘大会】.jpg]]|SAVOIA|棘々藤燈火|
 |~|~|~|ラバソ|雪向 咲|</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6078,7 +6205,7 @@
         <v>A</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
         <v>150</v>
@@ -6104,17 +6231,17 @@
         <v>|第五回|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/IMgametimeR.html/IMgametimeR.html]]|[[【URL】&gt;&gt;https://amazugali.github.io/KaniTRPGROG/YGGDRASIL/NOMAL/202212gametimeR/IMgametimeR.html/キリマモ【理不尽武闘大会】.jpg]]|キリシロ|王城都 夏恋|
 |~|~|~|マンモーニ|PC10|</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
@@ -6135,19 +6262,19 @@
         <v>C</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+        <v>260</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
@@ -6169,19 +6296,19 @@
         <v>V</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+        <v>259</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
@@ -6204,17 +6331,17 @@
       <c r="F9" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -6235,19 +6362,19 @@
         <v>I</v>
       </c>
       <c r="F10" t="s">
-        <v>262</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+        <v>261</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -6267,17 +6394,17 @@
       <c r="F11" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B12">
@@ -6297,17 +6424,17 @@
       <c r="F12" t="s">
         <v>144</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6382,7 +6509,7 @@
       <c r="L1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="8" t="str">
+      <c r="M1" s="9" t="str">
         <f>"|開催|ログ|画像|ＰＬ|ＰＣ|"&amp;
 CHAR(10)&amp;L2&amp;
 CHAR(10)&amp;L3&amp;
@@ -6408,16 +6535,16 @@
 |~|~|~|||
 </v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2">
@@ -6465,17 +6592,17 @@
 |~|~|~|ラバソ|雪向 咲|
 |~|~|~|カゲロウ|グレちゃん|</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
@@ -6523,21 +6650,21 @@
 |~|~|~|SAVOIA|クイーン・ガーランド|
 |~|~|~|チヒロ|プーレ・フーン・ポッロ|</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6581,17 +6708,17 @@
 |~|~|~|キリシロ|ソルト・レイン|
 |~|~|~|スマブラの人|遠見 隼人|</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
@@ -6639,21 +6766,21 @@
 |~|~|~|ウルフ|PC11|
 |~|~|~|||</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6672,17 +6799,17 @@
       <c r="F6" t="s">
         <v>211</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
@@ -6705,17 +6832,17 @@
       <c r="F7" t="s">
         <v>210</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
@@ -6739,17 +6866,17 @@
       <c r="F8" t="s">
         <v>203</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
@@ -6772,17 +6899,17 @@
       <c r="F9" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -6805,17 +6932,17 @@
       <c r="F10" t="s">
         <v>204</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -6835,17 +6962,17 @@
       <c r="F11" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B12">
@@ -6865,17 +6992,17 @@
       <c r="F12" t="s">
         <v>144</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/YGGDRASIL/NOMAL/カニソムリエ.xlsx
+++ b/YGGDRASIL/NOMAL/カニソムリエ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\バックアップ\ROG\KaniTRPGROG\YGGDRASIL\NOMAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\◎ドキュメント\バックアップ\ROG\KaniTRPGROG\YGGDRASIL\NOMAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916C5B88-4601-4DBB-B033-A2158D68F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA0A3E7-5163-4AF4-9033-AE237888DE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5362FB8-6611-4166-A3E4-04ADF3D10CE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5362FB8-6611-4166-A3E4-04ADF3D10CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoC" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="329">
   <si>
     <t>CoCセッション</t>
     <phoneticPr fontId="1"/>
@@ -965,9 +965,6 @@
     <t>caveoperation</t>
   </si>
   <si>
-    <t>recollection</t>
-  </si>
-  <si>
     <t>ecstatic</t>
   </si>
   <si>
@@ -1614,6 +1611,18 @@
   </si>
   <si>
     <t>wasurenaide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ramen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mohicar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recollection</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2398,7 +2407,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2406,7 +2415,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -2417,7 +2426,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2430,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C554B2-A0CF-4012-8188-E274791ABB10}">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2462,7 +2471,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2483,7 +2492,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L2" t="s">
         <v>103</v>
@@ -2491,10 +2500,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3">
         <v>202401</v>
@@ -2532,7 +2541,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>20170605</v>
@@ -2550,7 +2559,7 @@
         <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -2660,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <v>20171201</v>
@@ -2678,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -2746,7 +2755,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="C15">
         <v>20180421</v>
@@ -2807,7 +2816,7 @@
         <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -2833,7 +2842,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19">
         <v>20180619</v>
@@ -2914,7 +2923,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23">
@@ -3026,7 +3035,7 @@
         <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28">
         <v>20190505</v>
@@ -3049,7 +3058,7 @@
         <v>60</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29">
         <v>20190604</v>
@@ -3067,12 +3076,12 @@
         <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30">
@@ -3117,7 +3126,7 @@
         <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32">
         <v>20190729</v>
@@ -3150,7 +3159,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -3170,7 +3179,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -3181,7 +3190,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35">
         <v>20200118</v>
@@ -3284,7 +3293,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40">
         <v>20200420</v>
@@ -3302,7 +3311,7 @@
         <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -3325,7 +3334,7 @@
         <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -3348,15 +3357,15 @@
         <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43">
         <v>20200428</v>
@@ -3365,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" t="s">
         <v>115</v>
@@ -3377,7 +3386,7 @@
         <v>32</v>
       </c>
       <c r="K43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -3385,7 +3394,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44">
         <v>20200504</v>
@@ -3403,15 +3412,15 @@
         <v>32</v>
       </c>
       <c r="K44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
         <v>174</v>
-      </c>
-      <c r="B45" t="s">
-        <v>175</v>
       </c>
       <c r="C45">
         <v>20200508</v>
@@ -3420,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" t="s">
         <v>115</v>
@@ -3432,7 +3441,7 @@
         <v>32</v>
       </c>
       <c r="K45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
@@ -3440,7 +3449,7 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C46">
         <v>20200516</v>
@@ -3461,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="K46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
@@ -3469,7 +3478,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47">
         <v>20200519</v>
@@ -3487,7 +3496,7 @@
         <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -3495,7 +3504,7 @@
         <v>88</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C48">
         <v>20200527</v>
@@ -3513,7 +3522,7 @@
         <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -3521,7 +3530,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49">
         <v>20200701</v>
@@ -3542,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -3550,7 +3559,7 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C50">
         <v>20200711</v>
@@ -3571,7 +3580,7 @@
         <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -3579,7 +3588,7 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C51">
         <v>20200711</v>
@@ -3600,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="K51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
@@ -3626,13 +3635,16 @@
         <v>32</v>
       </c>
       <c r="K52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>25</v>
       </c>
+      <c r="B53" t="s">
+        <v>326</v>
+      </c>
       <c r="C53">
         <v>20201112</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -3672,7 +3684,7 @@
         <v>32</v>
       </c>
       <c r="K54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -3680,7 +3692,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55">
         <v>20201225</v>
@@ -3701,15 +3713,15 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C56">
         <v>20201230</v>
@@ -3733,13 +3745,16 @@
         <v>115</v>
       </c>
       <c r="K56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>95</v>
       </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
       <c r="C57">
         <v>20210128</v>
       </c>
@@ -3756,7 +3771,7 @@
         <v>32</v>
       </c>
       <c r="K57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -3779,7 +3794,7 @@
         <v>32</v>
       </c>
       <c r="K58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -3787,7 +3802,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59">
         <v>20210630</v>
@@ -3805,7 +3820,7 @@
         <v>32</v>
       </c>
       <c r="K59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
@@ -3813,7 +3828,7 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C60">
         <v>20210824</v>
@@ -3831,7 +3846,7 @@
         <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
@@ -3839,7 +3854,7 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C61">
         <v>20210928</v>
@@ -3857,7 +3872,7 @@
         <v>32</v>
       </c>
       <c r="K61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3895,7 +3910,7 @@
         <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63">
         <v>20211008</v>
@@ -3913,7 +3928,7 @@
         <v>115</v>
       </c>
       <c r="K63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
@@ -3921,7 +3936,7 @@
         <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C64">
         <v>20211206</v>
@@ -3939,7 +3954,7 @@
         <v>32</v>
       </c>
       <c r="K64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
@@ -3947,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C65">
         <v>20220220</v>
@@ -3971,15 +3986,15 @@
         <v>115</v>
       </c>
       <c r="K65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C66">
         <v>20220409</v>
@@ -4003,7 +4018,7 @@
         <v>32</v>
       </c>
       <c r="K66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
@@ -4011,7 +4026,7 @@
         <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C67">
         <v>20220413</v>
@@ -4035,7 +4050,7 @@
         <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -4043,7 +4058,7 @@
         <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C68">
         <v>20220427</v>
@@ -4072,10 +4087,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" t="s">
         <v>190</v>
-      </c>
-      <c r="B69" t="s">
-        <v>191</v>
       </c>
       <c r="C69">
         <v>20220504</v>
@@ -4099,7 +4114,7 @@
         <v>32</v>
       </c>
       <c r="K69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
@@ -4107,7 +4122,7 @@
         <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C70">
         <v>20220522</v>
@@ -4131,7 +4146,7 @@
         <v>115</v>
       </c>
       <c r="K70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
@@ -4139,7 +4154,7 @@
         <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71">
         <v>20220529</v>
@@ -4163,7 +4178,7 @@
         <v>32</v>
       </c>
       <c r="K71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
@@ -4192,7 +4207,7 @@
         <v>32</v>
       </c>
       <c r="K72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4229,7 +4244,7 @@
         <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C74">
         <v>20220611</v>
@@ -4253,7 +4268,7 @@
         <v>32</v>
       </c>
       <c r="K74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -4261,7 +4276,7 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75">
         <v>20220612</v>
@@ -4285,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="K75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4438,10 +4453,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C81">
         <v>20220622</v>
@@ -4465,7 +4480,7 @@
         <v>32</v>
       </c>
       <c r="K81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
@@ -4473,7 +4488,7 @@
         <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82">
         <v>20220712</v>
@@ -4497,15 +4512,15 @@
         <v>115</v>
       </c>
       <c r="K82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83">
         <v>20230102</v>
@@ -4534,10 +4549,10 @@
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84">
         <v>20230108</v>
@@ -4566,10 +4581,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" t="s">
         <v>300</v>
-      </c>
-      <c r="B85" t="s">
-        <v>301</v>
       </c>
       <c r="C85">
         <v>20221219</v>
@@ -4593,15 +4608,15 @@
         <v>32</v>
       </c>
       <c r="K85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" t="s">
         <v>198</v>
-      </c>
-      <c r="B86" t="s">
-        <v>199</v>
       </c>
       <c r="C86">
         <v>20230114</v>
@@ -4625,15 +4640,15 @@
         <v>32</v>
       </c>
       <c r="K86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87">
         <v>20230216</v>
@@ -4662,10 +4677,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C88">
         <v>20230129</v>
@@ -4689,15 +4704,15 @@
         <v>115</v>
       </c>
       <c r="K88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89" t="s">
         <v>303</v>
-      </c>
-      <c r="B89" t="s">
-        <v>304</v>
       </c>
       <c r="C89">
         <v>20230203</v>
@@ -4721,15 +4736,15 @@
         <v>115</v>
       </c>
       <c r="K89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C90">
         <v>20230223</v>
@@ -4753,15 +4768,15 @@
         <v>32</v>
       </c>
       <c r="K90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B91" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C91">
         <v>20230328</v>
@@ -4785,15 +4800,15 @@
         <v>115</v>
       </c>
       <c r="K91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C92">
         <v>20230409</v>
@@ -4817,15 +4832,15 @@
         <v>115</v>
       </c>
       <c r="K92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C93">
         <v>20230511</v>
@@ -4849,15 +4864,15 @@
         <v>115</v>
       </c>
       <c r="K93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
+        <v>306</v>
+      </c>
+      <c r="B94" t="s">
         <v>307</v>
-      </c>
-      <c r="B94" t="s">
-        <v>308</v>
       </c>
       <c r="C94">
         <v>20230513</v>
@@ -4881,15 +4896,15 @@
         <v>115</v>
       </c>
       <c r="K94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
+        <v>241</v>
+      </c>
+      <c r="B95" t="s">
         <v>242</v>
-      </c>
-      <c r="B95" t="s">
-        <v>243</v>
       </c>
       <c r="C95">
         <v>20230513</v>
@@ -4913,15 +4928,15 @@
         <v>32</v>
       </c>
       <c r="K95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C96">
         <v>20231214</v>
@@ -4933,15 +4948,15 @@
         <v>115</v>
       </c>
       <c r="K96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C97">
         <v>20231217</v>
@@ -4953,15 +4968,15 @@
         <v>115</v>
       </c>
       <c r="K97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C98">
         <v>20240310</v>
@@ -4973,15 +4988,15 @@
         <v>115</v>
       </c>
       <c r="K98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C99">
         <v>20240413</v>
@@ -4990,15 +5005,15 @@
         <v>10</v>
       </c>
       <c r="K99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C100">
         <v>20240418</v>
@@ -5010,15 +5025,15 @@
         <v>115</v>
       </c>
       <c r="K100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>324</v>
+      </c>
+      <c r="B101" t="s">
         <v>325</v>
-      </c>
-      <c r="B101" t="s">
-        <v>326</v>
       </c>
       <c r="C101">
         <v>20240525</v>
@@ -5027,12 +5042,12 @@
         <v>2</v>
       </c>
       <c r="K101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C102">
         <v>20240625</v>
@@ -5041,66 +5056,66 @@
         <v>2</v>
       </c>
       <c r="K102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E112" t="s">
         <v>1</v>
@@ -5108,10 +5123,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E113" t="s">
         <v>1</v>
@@ -5119,10 +5134,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E114" t="s">
         <v>1</v>
@@ -5130,10 +5145,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
@@ -5260,7 +5275,7 @@
         <v>I</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
@@ -5316,7 +5331,7 @@
         <v>T</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
         <v>147</v>
@@ -5355,7 +5370,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5372,7 +5387,7 @@
         <v>W</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
         <v>148</v>
@@ -5428,7 +5443,7 @@
         <v>C</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
         <v>149</v>
@@ -5467,7 +5482,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5484,7 +5499,7 @@
         <v>H</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
         <v>150</v>
@@ -5540,7 +5555,7 @@
         <v>A</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G7" t="s">
         <v>151</v>
@@ -5597,7 +5612,7 @@
         <v>I</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
         <v>152</v>
@@ -5653,7 +5668,7 @@
         <v>S</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
         <v>153</v>
@@ -5709,7 +5724,7 @@
         <v>W</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
         <v>154</v>
@@ -5751,7 +5766,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.SWITCH(C11,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -5762,7 +5777,7 @@
         <v>M</v>
       </c>
       <c r="F11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
         <v>155</v>
@@ -5977,7 +5992,7 @@
         <v>T</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
@@ -6034,7 +6049,7 @@
         <v>H</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
         <v>147</v>
@@ -6074,7 +6089,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6091,7 +6106,7 @@
         <v>W</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G4" t="s">
         <v>148</v>
@@ -6148,7 +6163,7 @@
         <v>K</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
         <v>149</v>
@@ -6188,7 +6203,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6205,7 +6220,7 @@
         <v>A</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G6" t="s">
         <v>150</v>
@@ -6262,7 +6277,7 @@
         <v>C</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -6296,7 +6311,7 @@
         <v>V</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -6329,7 +6344,7 @@
         <v>R</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -6362,7 +6377,7 @@
         <v>I</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -6381,7 +6396,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.SWITCH(C11,"あさづけ","づけ","チヒロ","チヒ","はむぱん","はむ","キリシロ","キリ","カゲロウ","カゲ","マンモーニ","マモ","ラバソ","ラバ","スマブラの人","スマ","超たくあん","T","SAVOIA","さぼ","ウルフ","ウル","NULL")</f>
@@ -6565,7 +6580,7 @@
         <v>T</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
@@ -6623,7 +6638,7 @@
         <v>R</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
         <v>147</v>
@@ -6664,7 +6679,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6681,7 +6696,7 @@
         <v>K</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
         <v>148</v>
@@ -6739,7 +6754,7 @@
         <v>H</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
         <v>149</v>
@@ -6780,7 +6795,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6797,7 +6812,7 @@
         <v>V</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -6830,7 +6845,7 @@
         <v>C</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -6864,7 +6879,7 @@
         <v>A</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -6897,7 +6912,7 @@
         <v>I</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -6930,7 +6945,7 @@
         <v>S</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>

--- a/YGGDRASIL/NOMAL/カニソムリエ.xlsx
+++ b/YGGDRASIL/NOMAL/カニソムリエ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\◎ドキュメント\バックアップ\ROG\KaniTRPGROG\YGGDRASIL\NOMAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA0A3E7-5163-4AF4-9033-AE237888DE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD30A2E7-ECC4-4E23-ADDD-B41E37A9B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5362FB8-6611-4166-A3E4-04ADF3D10CE3}"/>
   </bookViews>
@@ -1485,9 +1485,6 @@
     <t>samurai</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>kabutoborg</t>
   </si>
   <si>
@@ -1623,6 +1620,10 @@
   </si>
   <si>
     <t>recollection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthday</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2439,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C554B2-A0CF-4012-8188-E274791ABB10}">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2499,32 +2500,44 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3">
-        <v>202401</v>
+      <c r="A3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20170522</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20170522</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4">
+        <v>20170605</v>
+      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -2535,19 +2548,19 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
+      <c r="K4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>20170605</v>
+        <v>20170608</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -2558,19 +2571,16 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>20170608</v>
+        <v>20170712</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -2583,17 +2593,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7">
-        <v>20170712</v>
+        <v>20170910</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
         <v>115</v>
@@ -2603,35 +2614,35 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
       <c r="C8">
         <v>20170910</v>
       </c>
       <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>20170911</v>
+      </c>
+      <c r="E9" t="s">
         <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>20170910</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -2644,12 +2655,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
       <c r="C10">
-        <v>20170911</v>
+        <v>20171201</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2663,19 +2676,19 @@
       <c r="I10" t="s">
         <v>32</v>
       </c>
+      <c r="K10" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>20171201</v>
+        <v>20180325</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -2686,22 +2699,19 @@
       <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>20180325</v>
+        <v>20180328</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
         <v>115</v>
@@ -2712,16 +2722,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>20180328</v>
+        <v>20180420</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>115</v>
@@ -2732,19 +2742,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>327</v>
       </c>
       <c r="C14">
-        <v>20180420</v>
+        <v>20180421</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
@@ -2752,22 +2765,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>20180421</v>
+        <v>20180422</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
@@ -2775,13 +2785,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
       </c>
       <c r="C16">
-        <v>20180422</v>
+        <v>20180503</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
@@ -2792,19 +2805,20 @@
       <c r="I16" t="s">
         <v>32</v>
       </c>
+      <c r="K16" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17">
-        <v>20180503</v>
+        <v>20180515</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
@@ -2815,20 +2829,16 @@
       <c r="I17" t="s">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2"/>
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
       <c r="C18">
-        <v>20180515</v>
+        <v>20180619</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -2842,13 +2852,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="C19">
-        <v>20180619</v>
+        <v>20180703</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -2862,13 +2872,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20">
-        <v>20180703</v>
+        <v>20180826</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>38</v>
@@ -2881,17 +2891,18 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21">
-        <v>20180826</v>
+        <v>20180912</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
         <v>115</v>
@@ -2902,17 +2913,17 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22">
-        <v>20180912</v>
+        <v>20180918</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>115</v>
@@ -2923,14 +2934,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23">
-        <v>20180918</v>
+        <v>20180928</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -2943,15 +2954,17 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1"/>
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="C24">
-        <v>20180928</v>
+        <v>20181112</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -2965,19 +2978,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>170</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B25" s="8"/>
       <c r="C25">
-        <v>20181112</v>
+        <v>20190304</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>115</v>
@@ -2987,18 +2998,20 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="8"/>
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="C26">
-        <v>20190304</v>
+        <v>20190505</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>115</v>
@@ -3031,114 +3044,112 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>284</v>
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C28">
-        <v>20190505</v>
+        <v>20190604</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
         <v>115</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B29" s="8"/>
       <c r="C29">
-        <v>20190604</v>
+        <v>20190606</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>115</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
-      </c>
-      <c r="K29" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30">
-        <v>20190606</v>
+        <v>20190627</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31">
+        <v>20190729</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32">
+        <v>20190826</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
       </c>
-      <c r="G30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31">
-        <v>20190627</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32">
-        <v>20190729</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>75</v>
-      </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -3146,17 +3157,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="8"/>
+        <v>81</v>
+      </c>
       <c r="C33">
-        <v>20190826</v>
+        <v>20190907</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>248</v>
@@ -3167,19 +3177,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
       </c>
       <c r="C34">
-        <v>20190907</v>
+        <v>20200118</v>
       </c>
       <c r="E34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -3187,19 +3200,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>20200118</v>
+        <v>20200228</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>115</v>
@@ -3210,13 +3220,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C36">
-        <v>20200228</v>
+        <v>20200304</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
@@ -3230,13 +3240,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37">
-        <v>20200304</v>
+        <v>20200408</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
@@ -3250,13 +3260,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C38">
-        <v>20200408</v>
+        <v>20200419</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
         <v>39</v>
@@ -3270,65 +3280,68 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
       </c>
       <c r="C39">
-        <v>20200419</v>
+        <v>20200420</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>115</v>
       </c>
       <c r="I39" t="s">
         <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="C40">
-        <v>20200420</v>
+        <v>20200422</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I40" t="s">
         <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41">
-        <v>20200422</v>
+        <v>20200424</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
@@ -3339,47 +3352,50 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>286</v>
       </c>
       <c r="C42">
-        <v>20200424</v>
+        <v>20200428</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
         <v>115</v>
       </c>
+      <c r="H42" t="s">
+        <v>115</v>
+      </c>
       <c r="I42" t="s">
         <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="C43">
-        <v>20200428</v>
+        <v>20200504</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" t="s">
         <v>115</v>
       </c>
       <c r="I43" t="s">
@@ -3391,74 +3407,77 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C44">
-        <v>20200504</v>
+        <v>20200508</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
         <v>115</v>
       </c>
+      <c r="H44" t="s">
+        <v>115</v>
+      </c>
       <c r="I44" t="s">
         <v>32</v>
       </c>
       <c r="K44" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="C45">
-        <v>20200508</v>
+        <v>20200516</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>115</v>
       </c>
-      <c r="H45" t="s">
-        <v>115</v>
-      </c>
       <c r="I45" t="s">
         <v>32</v>
       </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
       <c r="K45" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="C46">
-        <v>20200516</v>
+        <v>20200519</v>
       </c>
       <c r="E46" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>115</v>
@@ -3466,28 +3485,25 @@
       <c r="I46" t="s">
         <v>32</v>
       </c>
-      <c r="J46" t="s">
-        <v>32</v>
-      </c>
       <c r="K46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
-        <v>181</v>
+        <v>88</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C47">
-        <v>20200519</v>
+        <v>20200527</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
         <v>115</v>
@@ -3496,29 +3512,32 @@
         <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>288</v>
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>182</v>
       </c>
       <c r="C48">
-        <v>20200527</v>
+        <v>20200701</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>115</v>
       </c>
       <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
         <v>32</v>
       </c>
       <c r="K48" t="s">
@@ -3527,13 +3546,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49">
-        <v>20200701</v>
+        <v>20200711</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -3551,15 +3570,15 @@
         <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="C50">
         <v>20200711</v>
@@ -3580,18 +3599,15 @@
         <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>20200711</v>
+        <v>20200828</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
@@ -3609,15 +3625,18 @@
         <v>32</v>
       </c>
       <c r="K51" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>325</v>
       </c>
       <c r="C52">
-        <v>20200828</v>
+        <v>20201112</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -3631,28 +3650,22 @@
       <c r="I52" t="s">
         <v>32</v>
       </c>
-      <c r="J52" t="s">
-        <v>32</v>
-      </c>
       <c r="K52" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
-        <v>326</v>
+        <v>92</v>
       </c>
       <c r="C53">
-        <v>20201112</v>
+        <v>20201122</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
         <v>115</v>
@@ -3661,105 +3674,105 @@
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
       </c>
       <c r="C54">
-        <v>20201122</v>
+        <v>20201225</v>
       </c>
       <c r="E54" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>115</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="J54" t="s">
+        <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>184</v>
+        <v>247</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="C55">
-        <v>20201225</v>
+        <v>20201230</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s">
         <v>115</v>
       </c>
+      <c r="H55" t="s">
+        <v>115</v>
+      </c>
       <c r="I55" t="s">
         <v>115</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="K55" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>247</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>290</v>
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>326</v>
       </c>
       <c r="C56">
-        <v>20201230</v>
+        <v>20210128</v>
       </c>
       <c r="E56" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>115</v>
       </c>
-      <c r="H56" t="s">
-        <v>115</v>
-      </c>
       <c r="I56" t="s">
-        <v>115</v>
-      </c>
-      <c r="J56" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K56" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" t="s">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="C57">
-        <v>20210128</v>
+        <v>20210129</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
@@ -3776,13 +3789,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
       </c>
       <c r="C58">
-        <v>20210129</v>
+        <v>20210630</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
@@ -3799,16 +3815,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="C59">
-        <v>20210630</v>
+        <v>20210824</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
@@ -3820,21 +3836,21 @@
         <v>32</v>
       </c>
       <c r="K59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C60">
-        <v>20210824</v>
+        <v>20210928</v>
       </c>
       <c r="E60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
@@ -3846,18 +3862,18 @@
         <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="C61">
-        <v>20210928</v>
+        <v>20211008</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -3869,10 +3885,10 @@
         <v>115</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3907,16 +3923,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="C63">
-        <v>20211008</v>
+        <v>20211206</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>38</v>
@@ -3925,24 +3941,24 @@
         <v>115</v>
       </c>
       <c r="I63" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
         <v>293</v>
       </c>
       <c r="C64">
-        <v>20211206</v>
+        <v>20220220</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>38</v>
@@ -3950,25 +3966,31 @@
       <c r="G64" t="s">
         <v>115</v>
       </c>
+      <c r="H64" t="s">
+        <v>115</v>
+      </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="J64" t="s">
+        <v>115</v>
       </c>
       <c r="K64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
         <v>294</v>
       </c>
       <c r="C65">
-        <v>20220220</v>
+        <v>20220409</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
         <v>38</v>
@@ -3983,24 +4005,24 @@
         <v>115</v>
       </c>
       <c r="J65" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="C66">
-        <v>20220409</v>
+        <v>20220413</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F66" t="s">
         <v>38</v>
@@ -4018,21 +4040,21 @@
         <v>32</v>
       </c>
       <c r="K66" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C67">
-        <v>20220413</v>
+        <v>20220427</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
         <v>38</v>
@@ -4050,21 +4072,21 @@
         <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C68">
-        <v>20220427</v>
+        <v>20220504</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
         <v>38</v>
@@ -4082,21 +4104,21 @@
         <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="C69">
-        <v>20220504</v>
+        <v>20220522</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
         <v>38</v>
@@ -4111,24 +4133,24 @@
         <v>115</v>
       </c>
       <c r="J69" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="C70">
-        <v>20220522</v>
+        <v>20220529</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>38</v>
@@ -4143,24 +4165,21 @@
         <v>115</v>
       </c>
       <c r="J70" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K70" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="C71">
-        <v>20220529</v>
+        <v>20220601</v>
       </c>
       <c r="E71" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>38</v>
@@ -4178,18 +4197,21 @@
         <v>32</v>
       </c>
       <c r="K71" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>296</v>
       </c>
       <c r="C72">
-        <v>20220601</v>
+        <v>20220611</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>38</v>
@@ -4207,7 +4229,7 @@
         <v>32</v>
       </c>
       <c r="K72" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4241,16 +4263,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="C74">
-        <v>20220611</v>
+        <v>20220612</v>
       </c>
       <c r="E74" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
         <v>38</v>
@@ -4272,17 +4294,17 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>109</v>
+      <c r="A75" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="C75">
-        <v>20220612</v>
+        <v>20220622</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>38</v>
@@ -4300,7 +4322,7 @@
         <v>32</v>
       </c>
       <c r="K75" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4452,17 +4474,17 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81" s="7" t="s">
-        <v>195</v>
+      <c r="A81" t="s">
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="C81">
-        <v>20220622</v>
+        <v>20220712</v>
       </c>
       <c r="E81" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -4477,24 +4499,24 @@
         <v>115</v>
       </c>
       <c r="J81" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="C82">
-        <v>20220712</v>
+        <v>20221219</v>
       </c>
       <c r="E82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -4509,10 +4531,10 @@
         <v>115</v>
       </c>
       <c r="J82" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K82" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4581,16 +4603,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="B85" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="C85">
-        <v>20221219</v>
+        <v>20230114</v>
       </c>
       <c r="E85" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -4608,21 +4630,21 @@
         <v>32</v>
       </c>
       <c r="K85" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C86">
-        <v>20230114</v>
+        <v>20230129</v>
       </c>
       <c r="E86" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>38</v>
@@ -4637,10 +4659,10 @@
         <v>115</v>
       </c>
       <c r="J86" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K86" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -4680,13 +4702,13 @@
         <v>301</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="C88">
-        <v>20230129</v>
+        <v>20230203</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>38</v>
@@ -4704,21 +4726,21 @@
         <v>115</v>
       </c>
       <c r="K88" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="B89" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="C89">
-        <v>20230203</v>
+        <v>20230223</v>
       </c>
       <c r="E89" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
         <v>38</v>
@@ -4727,65 +4749,65 @@
         <v>115</v>
       </c>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I89" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="J89" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K89" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="C90">
-        <v>20230223</v>
+        <v>20230328</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
         <v>115</v>
       </c>
       <c r="H90" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I90" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="J90" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s">
         <v>304</v>
       </c>
       <c r="C91">
-        <v>20230328</v>
+        <v>20230409</v>
       </c>
       <c r="E91" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>115</v>
@@ -4800,24 +4822,24 @@
         <v>115</v>
       </c>
       <c r="K91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" t="s">
-        <v>305</v>
+        <v>240</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="C92">
-        <v>20230409</v>
+        <v>20230511</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G92" t="s">
         <v>115</v>
@@ -4832,24 +4854,24 @@
         <v>115</v>
       </c>
       <c r="K92" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>240</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>282</v>
+        <v>305</v>
+      </c>
+      <c r="B93" t="s">
+        <v>306</v>
       </c>
       <c r="C93">
-        <v>20230511</v>
+        <v>20230513</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
         <v>115</v>
@@ -4864,21 +4886,21 @@
         <v>115</v>
       </c>
       <c r="K93" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="C94">
         <v>20230513</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>38</v>
@@ -4887,88 +4909,67 @@
         <v>115</v>
       </c>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="J94" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K94" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="C95">
-        <v>20230513</v>
+        <v>20231214</v>
       </c>
       <c r="E95" t="s">
         <v>1</v>
       </c>
-      <c r="F95" t="s">
-        <v>38</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
       <c r="H95" t="s">
-        <v>32</v>
-      </c>
-      <c r="I95" t="s">
-        <v>32</v>
-      </c>
-      <c r="J95" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C96">
-        <v>20231214</v>
+        <v>20231217</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>115</v>
       </c>
       <c r="K96" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B97" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C97">
-        <v>20231217</v>
-      </c>
-      <c r="E97" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-      <c r="K97" t="s">
-        <v>321</v>
+        <v>20240101</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
@@ -4976,7 +4977,7 @@
         <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C98">
         <v>20240310</v>
@@ -4988,7 +4989,7 @@
         <v>115</v>
       </c>
       <c r="K98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
@@ -4996,7 +4997,7 @@
         <v>279</v>
       </c>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99">
         <v>20240413</v>
@@ -5013,7 +5014,7 @@
         <v>280</v>
       </c>
       <c r="B100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100">
         <v>20240418</v>
@@ -5025,15 +5026,15 @@
         <v>115</v>
       </c>
       <c r="K100" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" t="s">
         <v>324</v>
-      </c>
-      <c r="B101" t="s">
-        <v>325</v>
       </c>
       <c r="C101">
         <v>20240525</v>
@@ -5042,12 +5043,12 @@
         <v>2</v>
       </c>
       <c r="K101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C102">
         <v>20240625</v>
@@ -5089,7 +5090,7 @@
         <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
@@ -5107,7 +5108,7 @@
         <v>271</v>
       </c>
       <c r="B111" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
@@ -5115,7 +5116,7 @@
         <v>272</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E112" t="s">
         <v>1</v>
@@ -5126,7 +5127,7 @@
         <v>273</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E113" t="s">
         <v>1</v>
@@ -5137,7 +5138,7 @@
         <v>275</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E114" t="s">
         <v>1</v>
@@ -5148,7 +5149,7 @@
         <v>281</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
